--- a/acronimos_rev2.xlsx
+++ b/acronimos_rev2.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23901"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kenji\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90FE7A36-D41B-47AA-B7F2-ADE456325D4F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A1A0A55-1893-4029-9926-402B6540CE66}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15012" uniqueCount="7512">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15144" uniqueCount="7551">
   <si>
     <t>NOME</t>
   </si>
@@ -22687,6 +22687,232 @@
   </si>
   <si>
     <t xml:space="preserve">Encargo Liquidação MCP - Original - Atualização Mo </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Desligamento do agente OPM - Ref. Ago/16 (*)
+Atm. Desligamento do agente OPM - Ref. Ago/16 (*)</t>
+  </si>
+  <si>
+    <t>Desligamento Agentes - CEPASA e DAMBROZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Correção Aj Desligamento CERTEL Ref. Nov16
+Correção Aj Desligamento OPM Ref. Nov16
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Reversão do juros da inadimplência de Jul e Ago/15
+Reversão do juros da inadimplência de Set/15
+Reversão do juros da inadimplência de Out e Nov/15
+Reversão do juros da inadimplência de Dez/15
+Reversão do juros da inadimplência de Jan/16
+Reversão do juros da inadimplência de Fev e Mar/16
+Reversão do juros da inadimplência de Abr/16
+Reversão do juros da inadimplência de Mai/16</t>
+  </si>
+  <si>
+    <t>Atm. Despacho 2982/16 - Estorno Juros Mora_Mar16 (*)
+Atm. Despacho 2982/16 - Estorno Juros Mora_Set16 (*)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Atualização Mone dos Juros da Inad de Jul e Ago/15
+Atualização Monet dos Juros da Inad de Set/15
+Atualização Mone dos Juros da Inad de Out e Nov/15
+Atualização Mone dos Juros da Inad de Dez/15
+Atualização Mone dos Juros da Inad de Jan/16
+Atualização Mone dos Juros da Inad de Fev e Mar/16
+Atualização Mone dos Juros da Inad de Abr/16
+Atualização Mone dos Juros da Inad de Mai/16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Atualização Monetária da Atm Inad Jul e Ago/2015
+Atualização Monetária da Atm Inad Set/2015
+Atualização Monetária da Atm Inad Out Nov/15
+Atualização Monetária da Atm Inad Dez/15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Juros da atualização monetária Inad Jul e Ago/2015
+Juros da atualização monetária Inad Set/2015
+Juros da atualização monetária Inad Out Nov/2015
+Juros da atualização monetária Inad Dez/2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Reversão da atualização mone da inad de Jul Ago/15
+Reversão da atualização mone da inad de Set/15
+Reversão da atualização mone da inad de Out Nov/15
+Reversão da atualização mone da inad de Dez/15</t>
+  </si>
+  <si>
+    <t>Reversão da atm da inad de Jul Ago/15
+Reversão da atm da inad de Set/15
+Reversão da atm da inad de Out Nov/15
+Reversão da atm da inad de Dez/15</t>
+  </si>
+  <si>
+    <t>Atualização Monet da Atm Inad Jul e Ago/2015
+Atualização Monetária da Atm Inad Set/2015
+Atualização Monet da Atm Inad Out Nov/15
+Atualização Monetária da Atm Inad Dez/15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Est. Atualização Monetária - Fev16
+Est. Atualização Monetária - Abr16
+Est. Atualização Monetária - Mai16
+Est. Atualização Monetária - Jun16
+Est. Atualização Monetária - Jul16
+Est. Atualização Monetária - Ago16
+Est. Atualização Monetária - Set16
+Est. Atualização Monetária - Out16
+Est. Atualização Monetária - Dez16
+Est. Atualização Monetária - Jan17
+Est. Atualização Monetária - Fev17
+Est. Atualização Monetária - Mar17
+Est. Atualização Monetária - Ago17
+</t>
+  </si>
+  <si>
+    <t>kenji</t>
+  </si>
+  <si>
+    <t>9ª Recontabilização de Março de 2018
+1ª Recontabilização de Março de 2020
+1ª Recontabilização de Abril de 2020
+1ª Recontabilização de Maio de 2020</t>
+  </si>
+  <si>
+    <t>RTR 3381 - Principal + ATM (Nov/14 até Abr/18)</t>
+  </si>
+  <si>
+    <t>RTR 3382 - Principal + ATM (Jul/14 até Abr/18)</t>
+  </si>
+  <si>
+    <t>RTR 3383 - Principal + ATM (Jan/15 até Jun/17 e Dez/17 até Jun/18)</t>
+  </si>
+  <si>
+    <t>RTR 3384 - Principal + ATM (Dez/14 até Abr/18)</t>
+  </si>
+  <si>
+    <t>RTR 3386 - Principal + ATM (Abr/16 até Jun/17 e  Mar/18)</t>
+  </si>
+  <si>
+    <t>9ª Recontabilização de junho de 2014
+7ª Recontabilização de julho de 2016
+7ª Recontabilização de agosto de 2016
+8ª Recontabilização de setembro de 2016
+9ª Recontabilização de outubro de 2016
+9ª Recontabilização de novembro de 2016
+4ª Recontabilização de julho de 2017
+3ª Recontabilização de agosto de 2017
+3ª Recontabilização de outubro de 2017
+2ª Recontabilização de janeiro de 2018
+1ª Recontabilização de maio de 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Corr Ação 00138561920174013800 - 5aRecNov15
+Corr Ação 00138561920174013800 - 6aRecDez15
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+5ª Recontabilização de Novembro de 2015
+6ª Recontabilização de Dezembro de 2015
+7ª Recontabilização de Janeiro de 2016
+7ª Recontabilização de Fevereiro de 2016
+7ª Recontabilização de Março de 2016
+5ª Recontabilização de Abril de 2016
+7ª Recontabilização de Maio de 2016
+5ª Recontabilização de Agosto de 2016
+6ª Recontabilização de Setembro de 2016
+7ª Recontabilização de Outubro de 2016
+6ª Recontabilização de Novembro de 2016
+1ª Recontabilização de Abril de 2017</t>
+  </si>
+  <si>
+    <t>11ª Recontabilização de julho de 2014
+11ª Recontabilização de janeiro de 2017
+11ª Recontabilização de fevereiro de 2017
+11ª Recontabilização de março de 2017
+11ª Recontabilização de abril de 2017
+10ª Recontabilização de maio de 2017
+10ª Recontabilização de junho de 2017
+8ª Recontabilização de julho de 2017
+5ª Recontabilização de novembro de 2018</t>
+  </si>
+  <si>
+    <t>8ª Recontabilização de abril de 2016
+10ª Recontabilização de maio de 2016
+9ª Recontabilização de junho de 2016
+8ª Recontabilização de julho de 2016
+8ª Recontabilização de agosto de 2016
+9ª Recontabilização de setembro de 2016
+10ª Recontabilização de outubro de 2016
+10ª Recontabilização de novembro de 2016
+9ª Recontabilização de dezembro de 2016
+4ª Recontabilização de dezembro de 2018</t>
+  </si>
+  <si>
+    <t>Ação nº 0032975-14.2016.4.01.3400 - Mai/16</t>
+  </si>
+  <si>
+    <t>Ação nº 0036225-77-2016.4.01.3400 - Abr/16
+Ação nº 0036225-77-2016.4.01.3400 - Mai/16</t>
+  </si>
+  <si>
+    <t>Liminares contra efeitos FID Sto Antonio Jul/16</t>
+  </si>
+  <si>
+    <t>Ação nº 0032975-14.2016.4.01.3400 - Jun/16</t>
+  </si>
+  <si>
+    <t>Ação nº 0036225-77-2016.4.01.3400 - Jun/16</t>
+  </si>
+  <si>
+    <t>Ação nº 0040538-81.2016.4.01.3400</t>
+  </si>
+  <si>
+    <t>Ação nº 0036282-95.2016.4.01.3400</t>
+  </si>
+  <si>
+    <t>Ação 0038167-47.2016.4.01.3400 - ABIAPE</t>
+  </si>
+  <si>
+    <t>Deliberação CAd 0871/20 - RTR 3968
+Atm. Deliberação CAd 0871/20 - RTR 3968
+(período de Set 15 a Dez15)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Estorno e Recalculo
+Ação n° 0018308-11.2017.4.01.3400 0 Lim GF
+</t>
+  </si>
+  <si>
+    <t>Ação n° 0018308-11.2017.4.01.3400 0 Lim GF (Ano 2011,Ano 2012,jul/14 até dez/14, Ano 2015, Ano 2016 e Jan/17 até ago/17)</t>
+  </si>
+  <si>
+    <t>Saldo remanescente Princ Parcelamento VIBEOLI CERAMICA
+Juros Parcelamento VIBEOLI CERAMICA
+ATM Parcelamento VIBEOLI CERAMICA</t>
+  </si>
+  <si>
+    <t>Saldo remanescente Princ Parcelamento AMAZONAS ENERG
+Juros Parcelamento AMAZONAS ENE
+Atm Parcelamento AMAZONAS ENE</t>
+  </si>
+  <si>
+    <t>Ação n 00270959220184013400 Est Atm de Juros
+(Julho de 2018 a Maio de 2019)</t>
+  </si>
+  <si>
+    <t>Saldo remanescente Princ Parcelamento AMAZONAS ENERG</t>
   </si>
 </sst>
 </file>
@@ -22735,7 +22961,21 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="12">
+  <dxfs count="14">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -23154,15 +23394,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B7506"/>
+  <dimension ref="A1:C7566"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
-      <selection activeCell="K16" sqref="K15:K16"/>
+      <selection activeCell="M24" sqref="M24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="50.81640625" customWidth="1"/>
+    <col min="2" max="2" width="48.6328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
@@ -83197,7 +83437,7 @@
         <v>5794</v>
       </c>
     </row>
-    <row r="7505" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7505" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7505" t="s">
         <v>3</v>
       </c>
@@ -83205,7 +83445,7 @@
         <v>5795</v>
       </c>
     </row>
-    <row r="7506" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7506" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7506" t="s">
         <v>331</v>
       </c>
@@ -83213,66 +83453,592 @@
         <v>7497</v>
       </c>
     </row>
+    <row r="7507" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7507" t="s">
+        <v>331</v>
+      </c>
+      <c r="B7507" t="s">
+        <v>7512</v>
+      </c>
+    </row>
+    <row r="7508" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7508" t="s">
+        <v>331</v>
+      </c>
+      <c r="B7508" t="s">
+        <v>7513</v>
+      </c>
+    </row>
+    <row r="7509" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7509" t="s">
+        <v>331</v>
+      </c>
+      <c r="B7509" t="s">
+        <v>7514</v>
+      </c>
+    </row>
+    <row r="7510" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7510" t="s">
+        <v>331</v>
+      </c>
+      <c r="B7510" t="s">
+        <v>7515</v>
+      </c>
+    </row>
+    <row r="7511" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7511" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7511" t="s">
+        <v>7516</v>
+      </c>
+      <c r="C7511" t="s">
+        <v>7524</v>
+      </c>
+    </row>
+    <row r="7512" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7512" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7512" t="s">
+        <v>7517</v>
+      </c>
+      <c r="C7512" t="s">
+        <v>7524</v>
+      </c>
+    </row>
+    <row r="7513" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7513" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7513" t="s">
+        <v>7518</v>
+      </c>
+      <c r="C7513" t="s">
+        <v>7524</v>
+      </c>
+    </row>
+    <row r="7514" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7514" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7514" t="s">
+        <v>7519</v>
+      </c>
+      <c r="C7514" t="s">
+        <v>7524</v>
+      </c>
+    </row>
+    <row r="7515" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7515" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7515" t="s">
+        <v>7520</v>
+      </c>
+      <c r="C7515" t="s">
+        <v>7524</v>
+      </c>
+    </row>
+    <row r="7516" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7516" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7516" t="s">
+        <v>7521</v>
+      </c>
+      <c r="C7516" t="s">
+        <v>7524</v>
+      </c>
+    </row>
+    <row r="7517" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7517" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7517" t="s">
+        <v>7522</v>
+      </c>
+      <c r="C7517" t="s">
+        <v>7524</v>
+      </c>
+    </row>
+    <row r="7518" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7518" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7518" t="s">
+        <v>7523</v>
+      </c>
+      <c r="C7518" t="s">
+        <v>7524</v>
+      </c>
+    </row>
+    <row r="7519" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7519" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7519" t="s">
+        <v>7525</v>
+      </c>
+      <c r="C7519" t="s">
+        <v>7524</v>
+      </c>
+    </row>
+    <row r="7520" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7520" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7520" t="s">
+        <v>7526</v>
+      </c>
+      <c r="C7520" t="s">
+        <v>7524</v>
+      </c>
+    </row>
+    <row r="7521" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7521" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7521" t="s">
+        <v>7527</v>
+      </c>
+      <c r="C7521" t="s">
+        <v>7524</v>
+      </c>
+    </row>
+    <row r="7522" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7522" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7522" t="s">
+        <v>7528</v>
+      </c>
+      <c r="C7522" t="s">
+        <v>7524</v>
+      </c>
+    </row>
+    <row r="7523" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7523" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7523" t="s">
+        <v>7529</v>
+      </c>
+      <c r="C7523" t="s">
+        <v>7524</v>
+      </c>
+    </row>
+    <row r="7524" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7524" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7524" t="s">
+        <v>7530</v>
+      </c>
+      <c r="C7524" t="s">
+        <v>7524</v>
+      </c>
+    </row>
+    <row r="7525" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7525" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7525" t="s">
+        <v>7531</v>
+      </c>
+      <c r="C7525" t="s">
+        <v>7524</v>
+      </c>
+    </row>
+    <row r="7526" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7526" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7526" t="s">
+        <v>7532</v>
+      </c>
+      <c r="C7526" t="s">
+        <v>7524</v>
+      </c>
+    </row>
+    <row r="7527" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7527" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7527" t="s">
+        <v>7533</v>
+      </c>
+      <c r="C7527" t="s">
+        <v>7524</v>
+      </c>
+    </row>
+    <row r="7528" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7528" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7528" t="s">
+        <v>7534</v>
+      </c>
+      <c r="C7528" t="s">
+        <v>7524</v>
+      </c>
+    </row>
+    <row r="7529" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7529" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7529" t="s">
+        <v>7535</v>
+      </c>
+      <c r="C7529" t="s">
+        <v>7524</v>
+      </c>
+    </row>
+    <row r="7530" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7530" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7530" t="s">
+        <v>7536</v>
+      </c>
+      <c r="C7530" t="s">
+        <v>7524</v>
+      </c>
+    </row>
+    <row r="7531" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7531" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7531" t="s">
+        <v>7537</v>
+      </c>
+      <c r="C7531" t="s">
+        <v>7524</v>
+      </c>
+    </row>
+    <row r="7532" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7532" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7532" t="s">
+        <v>7538</v>
+      </c>
+      <c r="C7532" t="s">
+        <v>7524</v>
+      </c>
+    </row>
+    <row r="7533" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7533" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7533" t="s">
+        <v>7539</v>
+      </c>
+      <c r="C7533" t="s">
+        <v>7524</v>
+      </c>
+    </row>
+    <row r="7534" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7534" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7534" t="s">
+        <v>7540</v>
+      </c>
+      <c r="C7534" t="s">
+        <v>7524</v>
+      </c>
+    </row>
+    <row r="7535" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7535" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7535" t="s">
+        <v>7541</v>
+      </c>
+      <c r="C7535" t="s">
+        <v>7524</v>
+      </c>
+    </row>
+    <row r="7536" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7536" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7536" t="s">
+        <v>7542</v>
+      </c>
+      <c r="C7536" t="s">
+        <v>7524</v>
+      </c>
+    </row>
+    <row r="7537" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7537" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7537" t="s">
+        <v>7543</v>
+      </c>
+      <c r="C7537" t="s">
+        <v>7524</v>
+      </c>
+    </row>
+    <row r="7538" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7538" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7538" t="s">
+        <v>7544</v>
+      </c>
+      <c r="C7538" t="s">
+        <v>7524</v>
+      </c>
+    </row>
+    <row r="7539" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7539" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7539" t="s">
+        <v>7545</v>
+      </c>
+      <c r="C7539" t="s">
+        <v>7524</v>
+      </c>
+    </row>
+    <row r="7540" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7540" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7540" t="s">
+        <v>7546</v>
+      </c>
+      <c r="C7540" t="s">
+        <v>7524</v>
+      </c>
+    </row>
+    <row r="7541" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7541" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7541" t="s">
+        <v>7547</v>
+      </c>
+      <c r="C7541" t="s">
+        <v>7524</v>
+      </c>
+    </row>
+    <row r="7542" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7542" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7542" t="s">
+        <v>7548</v>
+      </c>
+      <c r="C7542" t="s">
+        <v>7524</v>
+      </c>
+    </row>
+    <row r="7543" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7543" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7543" t="s">
+        <v>7549</v>
+      </c>
+      <c r="C7543" t="s">
+        <v>7524</v>
+      </c>
+    </row>
+    <row r="7544" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7544" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7544" t="s">
+        <v>7550</v>
+      </c>
+      <c r="C7544" t="s">
+        <v>7524</v>
+      </c>
+    </row>
+    <row r="7545" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C7545" t="s">
+        <v>7524</v>
+      </c>
+    </row>
+    <row r="7546" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C7546" t="s">
+        <v>7524</v>
+      </c>
+    </row>
+    <row r="7547" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C7547" t="s">
+        <v>7524</v>
+      </c>
+    </row>
+    <row r="7548" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C7548" t="s">
+        <v>7524</v>
+      </c>
+    </row>
+    <row r="7549" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C7549" t="s">
+        <v>7524</v>
+      </c>
+    </row>
+    <row r="7550" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C7550" t="s">
+        <v>7524</v>
+      </c>
+    </row>
+    <row r="7551" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C7551" t="s">
+        <v>7524</v>
+      </c>
+    </row>
+    <row r="7552" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C7552" t="s">
+        <v>7524</v>
+      </c>
+    </row>
+    <row r="7553" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C7553" t="s">
+        <v>7524</v>
+      </c>
+    </row>
+    <row r="7554" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C7554" t="s">
+        <v>7524</v>
+      </c>
+    </row>
+    <row r="7555" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C7555" t="s">
+        <v>7524</v>
+      </c>
+    </row>
+    <row r="7556" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C7556" t="s">
+        <v>7524</v>
+      </c>
+    </row>
+    <row r="7557" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C7557" t="s">
+        <v>7524</v>
+      </c>
+    </row>
+    <row r="7558" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C7558" t="s">
+        <v>7524</v>
+      </c>
+    </row>
+    <row r="7559" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C7559" t="s">
+        <v>7524</v>
+      </c>
+    </row>
+    <row r="7560" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C7560" t="s">
+        <v>7524</v>
+      </c>
+    </row>
+    <row r="7561" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C7561" t="s">
+        <v>7524</v>
+      </c>
+    </row>
+    <row r="7562" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C7562" t="s">
+        <v>7524</v>
+      </c>
+    </row>
+    <row r="7563" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C7563" t="s">
+        <v>7524</v>
+      </c>
+    </row>
+    <row r="7564" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C7564" t="s">
+        <v>7524</v>
+      </c>
+    </row>
+    <row r="7565" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C7565" t="s">
+        <v>7524</v>
+      </c>
+    </row>
+    <row r="7566" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C7566" t="s">
+        <v>7524</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:E7533" xr:uid="{89EE3A43-21E6-4A87-B00A-5209A0697B1A}"/>
+  <autoFilter ref="A1:E7566" xr:uid="{89EE3A43-21E6-4A87-B00A-5209A0697B1A}"/>
   <conditionalFormatting sqref="A7307:A7317 A7319:A7321">
-    <cfRule type="containsText" dxfId="11" priority="28" operator="containsText" text="Sem categoria">
+    <cfRule type="containsText" dxfId="13" priority="30" operator="containsText" text="Sem categoria">
       <formula>NOT(ISERROR(SEARCH("Sem categoria",A7307)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A7307:A7317 A7319:A7321">
-    <cfRule type="containsText" dxfId="10" priority="27" operator="containsText" text="&quot;Sem categoria&quot;">
+    <cfRule type="containsText" dxfId="12" priority="29" operator="containsText" text="&quot;Sem categoria&quot;">
       <formula>NOT(ISERROR(SEARCH("""Sem categoria""",A7307)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A7318">
-    <cfRule type="containsText" dxfId="9" priority="25" operator="containsText" text="Sem categoria">
+    <cfRule type="containsText" dxfId="11" priority="27" operator="containsText" text="Sem categoria">
       <formula>NOT(ISERROR(SEARCH("Sem categoria",A7318)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A7318">
-    <cfRule type="containsText" dxfId="8" priority="24" operator="containsText" text="&quot;Sem categoria&quot;">
+    <cfRule type="containsText" dxfId="10" priority="26" operator="containsText" text="&quot;Sem categoria&quot;">
       <formula>NOT(ISERROR(SEARCH("""Sem categoria""",A7318)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A7322:A7380">
-    <cfRule type="containsText" dxfId="7" priority="20" operator="containsText" text="Sem categoria">
+    <cfRule type="containsText" dxfId="9" priority="22" operator="containsText" text="Sem categoria">
       <formula>NOT(ISERROR(SEARCH("Sem categoria",A7322)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A7322:A7380">
-    <cfRule type="containsText" dxfId="6" priority="19" operator="containsText" text="&quot;Sem categoria&quot;">
+    <cfRule type="containsText" dxfId="8" priority="21" operator="containsText" text="&quot;Sem categoria&quot;">
       <formula>NOT(ISERROR(SEARCH("""Sem categoria""",A7322)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A7381:A7423">
-    <cfRule type="containsText" dxfId="5" priority="17" operator="containsText" text="Sem categoria">
+    <cfRule type="containsText" dxfId="7" priority="19" operator="containsText" text="Sem categoria">
       <formula>NOT(ISERROR(SEARCH("Sem categoria",A7381)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A7381:A7423">
-    <cfRule type="containsText" dxfId="4" priority="16" operator="containsText" text="&quot;Sem categoria&quot;">
+    <cfRule type="containsText" dxfId="6" priority="18" operator="containsText" text="&quot;Sem categoria&quot;">
       <formula>NOT(ISERROR(SEARCH("""Sem categoria""",A7381)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A7424">
-    <cfRule type="containsText" dxfId="3" priority="11" operator="containsText" text="Sem categoria">
+    <cfRule type="containsText" dxfId="5" priority="13" operator="containsText" text="Sem categoria">
       <formula>NOT(ISERROR(SEARCH("Sem categoria",A7424)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A7424">
-    <cfRule type="containsText" dxfId="2" priority="10" operator="containsText" text="&quot;Sem categoria&quot;">
+    <cfRule type="containsText" dxfId="4" priority="12" operator="containsText" text="&quot;Sem categoria&quot;">
       <formula>NOT(ISERROR(SEARCH("""Sem categoria""",A7424)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A7425:A7446 A7469:A7506">
-    <cfRule type="containsText" dxfId="1" priority="8" operator="containsText" text="Sem categoria">
+  <conditionalFormatting sqref="A7425:A7446 A7469:A7510">
+    <cfRule type="containsText" dxfId="3" priority="10" operator="containsText" text="Sem categoria">
       <formula>NOT(ISERROR(SEARCH("Sem categoria",A7425)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A7425:A7446 A7469:A7506">
-    <cfRule type="containsText" dxfId="0" priority="7" operator="containsText" text="&quot;Sem categoria&quot;">
+  <conditionalFormatting sqref="A7425:A7446 A7469:A7510">
+    <cfRule type="containsText" dxfId="2" priority="9" operator="containsText" text="&quot;Sem categoria&quot;">
       <formula>NOT(ISERROR(SEARCH("""Sem categoria""",A7425)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A7511:A7544">
+    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="Sem categoria">
+      <formula>NOT(ISERROR(SEARCH("Sem categoria",A7511)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A7511:A7544">
+    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="&quot;Sem categoria&quot;">
+      <formula>NOT(ISERROR(SEARCH("""Sem categoria""",A7511)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
